--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GeekBrains\Django\geekshop-server\geekshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9642772-1392-4EED-B3DE-CE87C8721B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D48FEE-0B5F-4E32-9FF0-C0F3DEE28ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13974B81-0CC0-438F-87D9-B74A68148A4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>Адрес</t>
   </si>
@@ -166,13 +166,139 @@
   </si>
   <si>
     <t>После оптимизации</t>
+  </si>
+  <si>
+    <t>Параметр</t>
+  </si>
+  <si>
+    <t>Число переходов</t>
+  </si>
+  <si>
+    <t>Доступность сервера</t>
+  </si>
+  <si>
+    <t>Запросов в секунду</t>
+  </si>
+  <si>
+    <t>Пропускная способность,</t>
+  </si>
+  <si>
+    <t>МБ/сек</t>
+  </si>
+  <si>
+    <t>Согласованность</t>
+  </si>
+  <si>
+    <t>Удачных транзакций</t>
+  </si>
+  <si>
+    <t>Неудачных транзакций</t>
+  </si>
+  <si>
+    <t>Самая долгая транзакция, с</t>
+  </si>
+  <si>
+    <t>-R10 -C10</t>
+  </si>
+  <si>
+    <t>99.09%</t>
+  </si>
+  <si>
+    <t>36.17</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>26.98</t>
+  </si>
+  <si>
+    <t>6.96</t>
+  </si>
+  <si>
+    <t>9.54</t>
+  </si>
+  <si>
+    <t>7.07</t>
+  </si>
+  <si>
+    <t>99.01%</t>
+  </si>
+  <si>
+    <t>70.61</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>26.80</t>
+  </si>
+  <si>
+    <t>5.87</t>
+  </si>
+  <si>
+    <t>19.06</t>
+  </si>
+  <si>
+    <t>11.87</t>
+  </si>
+  <si>
+    <t>-R10 -C20</t>
+  </si>
+  <si>
+    <t>-R10 -C30</t>
+  </si>
+  <si>
+    <t>99.18%</t>
+  </si>
+  <si>
+    <t>104.23</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>28.86</t>
+  </si>
+  <si>
+    <t>6.88</t>
+  </si>
+  <si>
+    <t>28.62</t>
+  </si>
+  <si>
+    <t>17.21</t>
+  </si>
+  <si>
+    <t>-R10 -C5</t>
+  </si>
+  <si>
+    <t>99.58%</t>
+  </si>
+  <si>
+    <t>19.53</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>24.17</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>4.71</t>
+  </si>
+  <si>
+    <t>3.66</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +313,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="204"/>
     </font>
     <font>
@@ -225,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -248,23 +381,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -579,15 +778,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFADD64A-D25E-4D37-98CA-8A0C3BAA2ECA}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -605,212 +809,212 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="20">
         <v>12600</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="20">
         <v>20150</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="20">
         <v>20150</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="20">
         <v>1800</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="20">
         <v>9150</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>25</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>18</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="20">
         <v>1950</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>28</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>23</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="20">
         <v>1950</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -822,203 +1026,406 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="20">
         <v>12600</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>6</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="20">
         <v>20150</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="20">
         <v>20150</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>7</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="20">
         <v>13900</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>4</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="20">
         <v>9150</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>9</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="20">
         <v>1950</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>10</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="20">
         <v>1950</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="9">
+        <v>976</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1892</v>
+      </c>
+      <c r="D24" s="9">
+        <v>3008</v>
+      </c>
+      <c r="E24" s="9">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="9">
+        <v>920</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1776</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2853</v>
+      </c>
+      <c r="E32" s="9">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="9">
+        <v>9</v>
+      </c>
+      <c r="C33" s="9">
+        <v>19</v>
+      </c>
+      <c r="D33" s="9">
+        <v>25</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <mergeCells count="4">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
